--- a/kimutatasok/2016_nyar.xlsx
+++ b/kimutatasok/2016_nyar.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
-    <sheet name="4. kérdés" sheetId="1" r:id="rId1"/>
+    <sheet name="Névvel küldött válaszok" sheetId="1" r:id="rId1"/>
+    <sheet name="Névtelen értékelés" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Igen</t>
   </si>
@@ -160,12 +161,57 @@
   <si>
     <t>Milyen céllal?</t>
   </si>
+  <si>
+    <t>Százalék</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>Átlag</t>
+  </si>
+  <si>
+    <t>Szórás</t>
+  </si>
+  <si>
+    <t>Módusz</t>
+  </si>
+  <si>
+    <t>1-es</t>
+  </si>
+  <si>
+    <t>3-as</t>
+  </si>
+  <si>
+    <t>4-es</t>
+  </si>
+  <si>
+    <t>5-ös</t>
+  </si>
+  <si>
+    <t>2-es</t>
+  </si>
+  <si>
+    <t>Tanulok (választott továbbtanulás)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyelvtanulás </t>
+  </si>
+  <si>
+    <t>Jogosítvány</t>
+  </si>
+  <si>
+    <t>Zenei producernek készülök</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +226,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,15 +253,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Százalék" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -220,6 +277,8069 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>4. kérdés - Képzési terület</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22974234729534548"/>
+          <c:y val="0.23535901506664253"/>
+          <c:w val="0.54051509833460165"/>
+          <c:h val="0.71832514215877696"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21564760026298488"/>
+                  <c:y val="0.19369751617257636"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.23668639053254437"/>
+                      <c:h val="0.12844031395328676"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.18145956607495078"/>
+                  <c:y val="-0.16982893155881285"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.24917817225509534"/>
+                      <c:h val="8.9121850498198985E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.24326101249178173"/>
+                      <c:h val="0.12581908305628092"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.24659563299268442"/>
+                      <c:h val="0.12566194679988299"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1130886745665668E-2"/>
+                  <c:y val="4.6202647867756998E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.366853551590075E-2"/>
+                  <c:y val="4.54186353296945E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.24582989892220919"/>
+                      <c:h val="0.12566194679988299"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4523754057370094E-2"/>
+                  <c:y val="-2.7243124960677888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.490207954774884E-2"/>
+                  <c:y val="-6.1527656934220694E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.5666444061356229E-2"/>
+                  <c:y val="6.050361968013414E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Névvel küldött válaszok'!$B$7:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Gazdaságtudomány</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bölcsészettudomány</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Műszaki</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Orvos- és egészségtudomány</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Társadalomtudomány</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jogi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Művészet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Természettudomány</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Agrár</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Informatika</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sporttudomány</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Névvel küldött válaszok'!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Névvel küldött válaszok'!$B$7:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Gazdaságtudomány</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bölcsészettudomány</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Műszaki</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Orvos- és egészségtudomány</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Társadalomtudomány</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jogi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Művészet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Természettudomány</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Agrár</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Informatika</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sporttudomány</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Névvel küldött válaszok'!$D$7:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.27884615384615385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11538461538461539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6538461538461536E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7692307692307696E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.807692307692308E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.807692307692308E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8461538461538464E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Képzés helye</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27758170913443664"/>
+          <c:y val="0.24055263925342665"/>
+          <c:w val="0.47695131644676142"/>
+          <c:h val="0.66408829104695244"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11518438320209974"/>
+                  <c:y val="-0.25708333333333333"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Névvel küldött válaszok'!$B$20:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Budapesten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Külföldön</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vidéken</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Névvel küldött válaszok'!$C$20:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Képzési típus</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2942066929133858"/>
+          <c:y val="0.3099970836978711"/>
+          <c:w val="0.40047572178477692"/>
+          <c:h val="0.66745953630796151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7224409448819406E-3"/>
+                  <c:y val="-0.21310185185185185"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1080380577427824E-2"/>
+                  <c:y val="1.1385972586759989E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12455653980752406"/>
+                  <c:y val="7.3447069116360456E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Névvel küldött válaszok'!$B$25:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Egyetemi képzés</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Felsőfokú szakképzés (OKJ)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Főiskolai képzés</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Névvel küldött válaszok'!$C$25:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Külföldi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> tanulmányok</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15882083160657551"/>
+          <c:y val="0.16450774476643754"/>
+          <c:w val="0.71420619790947193"/>
+          <c:h val="0.83251011330421765"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Névvel küldött válaszok'!$B$45:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Igen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Névvel küldött válaszok'!$C$45:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Külföldi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> tanulmányok ideje</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10580629200339836"/>
+          <c:y val="0.16674504228638087"/>
+          <c:w val="0.79089324051064491"/>
+          <c:h val="0.8320858850976961"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Névvel küldött válaszok'!$B$49:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Egy év</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fél év</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Névvel küldött válaszok'!$C$49:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Célja</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7674978127734032E-3"/>
+                  <c:y val="1.6667760279965003E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27013888888888887"/>
+                      <c:h val="0.16666666666666666"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.8179133858267705E-2"/>
+                  <c:y val="6.5821303587051627E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.39097222222222222"/>
+                      <c:h val="0.21875"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Névvel küldött válaszok'!$B$53:$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Nyelvtanulás</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Továbbtanulás megkönnyítése</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Új kultúrák megismerése, tapasztalatszerzés</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Névvel küldött válaszok'!$C$53:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Érettségi utáni tevékenységek</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7015091863517063E-2"/>
+                  <c:y val="5.2538726776799959E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3876859142607173E-2"/>
+                  <c:y val="5.273840769903762E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5541338582677165E-2"/>
+                  <c:y val="-1.2669960372600484E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.255"/>
+                      <c:h val="0.21731481481481482"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3844706911636047E-2"/>
+                  <c:y val="-8.5415401506184277E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Névvel küldött válaszok'!$B$31:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Tanulok (választott továbbtanulás)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pénzt keresek</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A következő évi felvételire készülök</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jogosítvány</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Zenei producernek készülök</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nyelvtanulás </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Névvel küldött válaszok'!$C$31:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="284"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Mennyire</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> vagy elégedett az Illyésben kapott képzéssel?</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16841601730657546"/>
+          <c:y val="0.3040230387868183"/>
+          <c:w val="0.67531502543899502"/>
+          <c:h val="0.66593540390784489"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3537510936132932E-2"/>
+                  <c:y val="-4.1207349081364827E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7179352580927383E-2"/>
+                  <c:y val="1.6090696996208806E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Névtelen értékelés'!$F$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1-es</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-es</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3-as</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-es</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5-ös</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Névtelen értékelés'!$F$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80964</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>20661</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagram 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290174</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>20661</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagram 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagram 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagram 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,10 +8605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C50"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,327 +8617,1165 @@
     <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>SUM(C3:C4)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <f>C3/(SUM(C3:C4))</f>
+        <v>0.99047619047619051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <f>C4/(SUM(C3:C4))</f>
+        <v>9.5238095238095247E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>SUM(C7:C17)</f>
+        <v>104</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7/$C$6</f>
+        <v>0.27884615384615385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <f>C8/$C$6</f>
+        <v>0.21153846153846154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <f>C9/$C$6</f>
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <f>C10/$C$6</f>
+        <v>8.6538461538461536E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <f>C11/$C$6</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <f>C12/$C$6</f>
+        <v>5.7692307692307696E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <f>C13/$C$6</f>
+        <v>4.807692307692308E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <f>C14/$C$6</f>
+        <v>4.807692307692308E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <f>C15/$C$6</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <f>C16/$C$6</f>
+        <v>1.9230769230769232E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <f>C17/$C$6</f>
+        <v>1.9230769230769232E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>104</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
+        <f>C20/$C$19</f>
+        <v>0.85576923076923073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <f t="shared" ref="D21:D22" si="0">C21/$C$19</f>
+        <v>0.10576923076923077</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>104</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>20</v>
       </c>
       <c r="C25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <f>C25/$C$24</f>
+        <v>0.96153846153846156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>21</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:D27" si="1">C26/$C$24</f>
+        <v>9.6153846153846159E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8846153846153848E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>24</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>27</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="C39">
+        <f>SUM(C40:C42)</f>
+        <v>39</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>16</v>
       </c>
-      <c r="C35">
+      <c r="C40">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="D40" s="2">
+        <f>C40/$C$39</f>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>17</v>
       </c>
-      <c r="C36">
+      <c r="C41">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="D41" s="2">
+        <f t="shared" ref="D41:D42" si="2">C41/$C$39</f>
+        <v>0.10256410256410256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>18</v>
       </c>
-      <c r="C37">
+      <c r="C42">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D42" s="2">
+        <f t="shared" si="2"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>28</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="C44">
+        <v>105</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>0</v>
       </c>
-      <c r="C40">
+      <c r="C45">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="D45" s="2">
+        <f>C45/$C$44</f>
+        <v>7.6190476190476197E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="C41">
+      <c r="C46">
         <v>97</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D46" s="2">
+        <f>C46/$C$44</f>
+        <v>0.92380952380952386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>29</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B48" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>30</v>
       </c>
-      <c r="C44">
+      <c r="C49">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="D49" s="2">
+        <f>C49/$C$48</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>31</v>
       </c>
-      <c r="C45">
+      <c r="C50">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="D50" s="2">
+        <f>C50/$C$48</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>32</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B52" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>35</v>
       </c>
-      <c r="C48">
+      <c r="C53">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="D53" s="2">
+        <f>C53/$C$52</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>33</v>
       </c>
-      <c r="C49">
+      <c r="C54">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="D54" s="2">
+        <f t="shared" ref="D54:D55" si="3">C54/$C$52</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>34</v>
       </c>
-      <c r="C50">
+      <c r="C55">
         <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B30:C36">
+    <sortCondition descending="1" ref="C36"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(B2:B106)</f>
+        <v>4.019047619047619</v>
+      </c>
+      <c r="D2">
+        <f>_xlfn.STDEV.P(B2:B106)</f>
+        <v>0.80452236502639529</v>
+      </c>
+      <c r="E2">
+        <f>_xlfn.MODE.SNGL(B2:B106)</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>54</v>
+      </c>
+      <c r="J2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>